--- a/flashcards_template.xlsx
+++ b/flashcards_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.marks\x\flashcards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F760736A-9E00-41B6-BB9B-653DE08BB904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B8BB55-D13B-4EC5-8299-5AE18480088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="16548" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="18780" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,9 +355,6 @@
     <t>img/3.jpg</t>
   </si>
   <si>
-    <t>img/4.jpg</t>
-  </si>
-  <si>
     <t>img/5.jpg</t>
   </si>
   <si>
@@ -367,9 +364,6 @@
     <t>img/17.jpg</t>
   </si>
   <si>
-    <t>img/7.jpg</t>
-  </si>
-  <si>
     <t>Internal Controls</t>
   </si>
   <si>
@@ -751,10 +745,16 @@
     <t>nature, timing</t>
   </si>
   <si>
-    <t>img/15.jpg</t>
-  </si>
-  <si>
     <t>img/16.jpg</t>
+  </si>
+  <si>
+    <t>img/4.png</t>
+  </si>
+  <si>
+    <t>img/7.jpeg</t>
+  </si>
+  <si>
+    <t>img/15.png</t>
   </si>
 </sst>
 </file>
@@ -1124,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C56" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1502,7 +1502,7 @@
         <v>91</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1525,7 +1525,7 @@
         <v>92</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1548,7 +1548,7 @@
         <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1571,7 +1571,7 @@
         <v>95</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1594,7 +1594,7 @@
         <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1617,7 +1617,7 @@
         <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1640,7 +1640,7 @@
         <v>88</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1663,7 +1663,7 @@
         <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1686,7 +1686,7 @@
         <v>98</v>
       </c>
       <c r="G24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1709,7 +1709,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1732,7 +1732,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1755,7 +1755,7 @@
         <v>99</v>
       </c>
       <c r="G27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1778,7 +1778,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1801,7 +1801,7 @@
         <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1824,7 +1824,7 @@
         <v>101</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1847,7 +1847,7 @@
         <v>102</v>
       </c>
       <c r="G31" t="s">
-        <v>115</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>103</v>
       </c>
       <c r="G32" t="s">
-        <v>115</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1893,7 +1893,7 @@
         <v>104</v>
       </c>
       <c r="G33" t="s">
-        <v>115</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1916,7 +1916,7 @@
         <v>105</v>
       </c>
       <c r="G34" t="s">
-        <v>115</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1939,996 +1939,996 @@
         <v>106</v>
       </c>
       <c r="G35" t="s">
-        <v>115</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" t="s">
         <v>116</v>
       </c>
-      <c r="B36" t="s">
-        <v>118</v>
-      </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
         <v>116</v>
       </c>
-      <c r="B37" t="s">
-        <v>118</v>
-      </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
         <v>116</v>
       </c>
-      <c r="B38" t="s">
-        <v>118</v>
-      </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
         <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
         <v>116</v>
       </c>
-      <c r="B39" t="s">
-        <v>118</v>
-      </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
         <v>116</v>
       </c>
-      <c r="B40" t="s">
-        <v>118</v>
-      </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F40" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G41" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
         <v>76</v>
       </c>
       <c r="E42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F42" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F43" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F44" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G44" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E45" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F45" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G45" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F46" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G46" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F47" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G47" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s">
         <v>76</v>
       </c>
       <c r="E48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F48" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G48" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G49" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F50" t="s">
         <v>96</v>
       </c>
       <c r="G50" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F51" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G51" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C53" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F53" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G53" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C54" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" t="s">
+        <v>208</v>
+      </c>
+      <c r="E54" t="s">
+        <v>166</v>
+      </c>
+      <c r="F54" t="s">
         <v>209</v>
       </c>
-      <c r="D54" t="s">
-        <v>210</v>
-      </c>
-      <c r="E54" t="s">
-        <v>168</v>
-      </c>
-      <c r="F54" t="s">
-        <v>211</v>
-      </c>
       <c r="G54" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F55" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G56" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E57" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F57" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G57" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E58" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F58" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G58" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F59" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G59" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D60" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F60" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G60" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D61" t="s">
         <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F61" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G61" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E62" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F62" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G62" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D63" t="s">
         <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F63" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G63" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D64" t="s">
         <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F64" t="s">
+        <v>227</v>
+      </c>
+      <c r="G64" t="s">
         <v>229</v>
-      </c>
-      <c r="G64" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D65" t="s">
         <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F65" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G65" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D66" t="s">
         <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F66" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G66" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D67" t="s">
         <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F67" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G67" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F68" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G68" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F69" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G69" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D70" t="s">
         <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G70" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B71" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D71" t="s">
         <v>76</v>
       </c>
       <c r="E71" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F71" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G71" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D72" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E72" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F72" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G72" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D73" t="s">
         <v>75</v>
       </c>
       <c r="E73" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F73" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G73" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C74" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D74" t="s">
         <v>15</v>
       </c>
       <c r="E74" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F74" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G74" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E75" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F75" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B76" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E76" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F76" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B77" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D77" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E77" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F77" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B78" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C78" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F78" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/flashcards_template.xlsx
+++ b/flashcards_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.marks\x\flashcards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B8BB55-D13B-4EC5-8299-5AE18480088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DD85DA-A7DA-4D61-B667-47719C401393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="18780" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="337">
   <si>
     <t>topic</t>
   </si>
@@ -139,9 +139,6 @@
     <t>ASOFAI</t>
   </si>
   <si>
-    <t>Engagaement letter - content</t>
-  </si>
-  <si>
     <t>Engagement letter - purpose</t>
   </si>
   <si>
@@ -376,9 +373,6 @@
     <t>CRIME</t>
   </si>
   <si>
-    <t>Significance of deficiencies in internal controls</t>
-  </si>
-  <si>
     <t>LOVELY</t>
   </si>
   <si>
@@ -755,6 +749,288 @@
   </si>
   <si>
     <t>img/15.png</t>
+  </si>
+  <si>
+    <t>TOC - PPE</t>
+  </si>
+  <si>
+    <t>TOC - Inventory</t>
+  </si>
+  <si>
+    <t>TOC - Receivables</t>
+  </si>
+  <si>
+    <t>TOC - Revenue</t>
+  </si>
+  <si>
+    <t>TOC - Payables</t>
+  </si>
+  <si>
+    <t>TOC - Payroll</t>
+  </si>
+  <si>
+    <t>TOC - Non-current liabilities</t>
+  </si>
+  <si>
+    <t>TOC - Bank</t>
+  </si>
+  <si>
+    <t>Engagement letter - content</t>
+  </si>
+  <si>
+    <t>Are deficiencies in internal controls "significant"?</t>
+  </si>
+  <si>
+    <t>Tests of controls - PPE</t>
+  </si>
+  <si>
+    <t>Tests of controls - Inventory</t>
+  </si>
+  <si>
+    <t>Tests of controls - Receivables</t>
+  </si>
+  <si>
+    <t>Tests of control - Revenue</t>
+  </si>
+  <si>
+    <t>Tests of control - Payables</t>
+  </si>
+  <si>
+    <t>Tests of control - Payroll</t>
+  </si>
+  <si>
+    <t>Tests of control - non-current liabilities</t>
+  </si>
+  <si>
+    <t>Tests of control - Bank</t>
+  </si>
+  <si>
+    <t>Inspect NCA register and ensure depreciation charged on all assets with a useful life</t>
+  </si>
+  <si>
+    <t>depreciation, all</t>
+  </si>
+  <si>
+    <t>depreciated, fully</t>
+  </si>
+  <si>
+    <t>For a sample of FULLY DEPRECIATED ASSETS, inspect the NCA register to ensure no further depreciation charged</t>
+  </si>
+  <si>
+    <t>Inspect supporting documentation for additions - purchase orders, suppliers invoices, solicitor completion statements</t>
+  </si>
+  <si>
+    <t>Inspect, documentation, additions</t>
+  </si>
+  <si>
+    <t>Recalculate gain(loss) on disposal and agree to general ledger</t>
+  </si>
+  <si>
+    <t>Reconcile gross carrying amount, accumulated depreciation and carrying amount to opening position in draft FS</t>
+  </si>
+  <si>
+    <t>Reconcile, opening, position</t>
+  </si>
+  <si>
+    <t>gain(loss), disposal</t>
+  </si>
+  <si>
+    <t>I:DPNA</t>
+  </si>
+  <si>
+    <t>I:DPNF</t>
+  </si>
+  <si>
+    <t>I:DA</t>
+  </si>
+  <si>
+    <t>RECA:GLD</t>
+  </si>
+  <si>
+    <t>RECO:ROP</t>
+  </si>
+  <si>
+    <t>PADDOCK</t>
+  </si>
+  <si>
+    <t>img/18.jpg</t>
+  </si>
+  <si>
+    <t>Patisserie Valerie</t>
+  </si>
+  <si>
+    <t>Compare gross margin to PY and industry data and investigate any differences</t>
+  </si>
+  <si>
+    <t>Cast a schedule of RM, WIP, FG and agree to trial balance</t>
+  </si>
+  <si>
+    <t>C:GMPY(PV)</t>
+  </si>
+  <si>
+    <t>I: AGED</t>
+  </si>
+  <si>
+    <t>RECA:CAST</t>
+  </si>
+  <si>
+    <t>I:NRV</t>
+  </si>
+  <si>
+    <t>Inspect GDNs and GRNs at period end and after to check they are included in the correct accounting period</t>
+  </si>
+  <si>
+    <t>I: CUT</t>
+  </si>
+  <si>
+    <t>CIGAR</t>
+  </si>
+  <si>
+    <t>img/19/jpg</t>
+  </si>
+  <si>
+    <t>For a sample of YE FG, inspect post YE sales invoices. If NRV is less than cost, an adjustment is needed</t>
+  </si>
+  <si>
+    <t>Compare trade receivables period CY to PY and investigate any differences</t>
+  </si>
+  <si>
+    <t>Inspect aged inventory reports, identify slow moving or obsolete stock, and discuss whether a write down or allowance needed with management</t>
+  </si>
+  <si>
+    <t>Inspect aged receivables listing, identify slow moving or old balances, and discuss whether they are likely to be paid or allowance needed with management</t>
+  </si>
+  <si>
+    <t>C: TRP</t>
+  </si>
+  <si>
+    <t>Inspect YE invoice dates and compare with GDN and GL dates for cut off</t>
+  </si>
+  <si>
+    <t>V: ROB</t>
+  </si>
+  <si>
+    <t>D:EX</t>
+  </si>
+  <si>
+    <t>Directly confirm receivables balance and investigate any differences</t>
+  </si>
+  <si>
+    <t>PIGEON</t>
+  </si>
+  <si>
+    <t>Vouch sample of outstanding YE balances to GDN and invoice to confirm goods delivered and amount owed to client</t>
+  </si>
+  <si>
+    <t>RECA: CAST</t>
+  </si>
+  <si>
+    <t>Cast breakdown of revenue and agree to GL, TB, draft FS</t>
+  </si>
+  <si>
+    <t>C:OVER</t>
+  </si>
+  <si>
+    <t>Compare overall level of revenue against PY/budget and investigate any significant differences</t>
+  </si>
+  <si>
+    <t>Proof in total</t>
+  </si>
+  <si>
+    <t>RECA: INV</t>
+  </si>
+  <si>
+    <t>Recalculate sample of invoices totals inc discounts and sales tax</t>
+  </si>
+  <si>
+    <t>SCOPE</t>
+  </si>
+  <si>
+    <t>RECO</t>
+  </si>
+  <si>
+    <t>Reperform bank reconciliation</t>
+  </si>
+  <si>
+    <t>Obtain standard bank confirmations from each bank</t>
+  </si>
+  <si>
+    <t>Verify balances with reply to standard bank letter and statements</t>
+  </si>
+  <si>
+    <t>Verify contra items</t>
+  </si>
+  <si>
+    <t>Examine any lodgements refused by bank, ensure they are cleared on representation</t>
+  </si>
+  <si>
+    <t>OVER</t>
+  </si>
+  <si>
+    <t>Reperform reconciliations from supplier statement to payables balance</t>
+  </si>
+  <si>
+    <t>PIT</t>
+  </si>
+  <si>
+    <t>I:CUT</t>
+  </si>
+  <si>
+    <t>RECA</t>
+  </si>
+  <si>
+    <t>Recalculate the amount of any accruals</t>
+  </si>
+  <si>
+    <t>Compare payables and accruals to previous YE, budgets and industry data and investigate any differences</t>
+  </si>
+  <si>
+    <t>Inspect post-YE bank payments for period, vouch to purchase or accruals journals</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>Cast payroll expense schedule</t>
+  </si>
+  <si>
+    <t>Agree total payroll expenses for the year to computerised wage system, bank statements, bank ledger</t>
+  </si>
+  <si>
+    <t>C:</t>
+  </si>
+  <si>
+    <t>Compare real figure to budgeted figures and enquire of management any differences</t>
+  </si>
+  <si>
+    <t>Agree total payroll figure to trial balance</t>
+  </si>
+  <si>
+    <t>Proof in total: est average wage x average number of employees; compare to draft FS</t>
+  </si>
+  <si>
+    <t>AGREE</t>
+  </si>
+  <si>
+    <t>Direct confirmation from lenders</t>
+  </si>
+  <si>
+    <t>Trace repayment in cash book</t>
+  </si>
+  <si>
+    <t>Review board minutes for new borrowing</t>
+  </si>
+  <si>
+    <t>Proof in total finance charges</t>
+  </si>
+  <si>
+    <t>Recalulate finance charges</t>
+  </si>
+  <si>
+    <t>CONFIRM</t>
+  </si>
+  <si>
+    <t>I: COMPLETE</t>
   </si>
 </sst>
 </file>
@@ -1122,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1157,7 +1433,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1180,7 +1456,7 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1203,7 +1479,7 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1226,7 +1502,7 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1249,7 +1525,7 @@
         <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1272,7 +1548,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1295,7 +1571,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1318,7 +1594,7 @@
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1341,7 +1617,7 @@
         <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1364,7 +1640,7 @@
         <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1387,7 +1663,7 @@
         <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1410,7 +1686,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1424,16 +1700,16 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1447,16 +1723,16 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1470,16 +1746,16 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1487,22 +1763,22 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1510,22 +1786,22 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1533,22 +1809,22 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" t="s">
         <v>93</v>
       </c>
-      <c r="F18" t="s">
-        <v>94</v>
-      </c>
       <c r="G18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1556,22 +1832,22 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1579,22 +1855,22 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1602,22 +1878,22 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1625,22 +1901,22 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1648,22 +1924,22 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1671,22 +1947,22 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1694,22 +1970,22 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1717,22 +1993,22 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1740,22 +2016,22 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1763,22 +2039,22 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1786,22 +2062,22 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1809,22 +2085,22 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1832,22 +2108,22 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1855,22 +2131,22 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1878,22 +2154,22 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1901,22 +2177,22 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1924,1011 +2200,1739 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" t="s">
         <v>116</v>
-      </c>
-      <c r="C36" t="s">
-        <v>117</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
         <v>116</v>
-      </c>
-      <c r="C37" t="s">
-        <v>117</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="s">
         <v>116</v>
       </c>
-      <c r="C38" t="s">
-        <v>117</v>
-      </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
         <v>116</v>
       </c>
-      <c r="C39" t="s">
-        <v>117</v>
-      </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
         <v>116</v>
-      </c>
-      <c r="C40" t="s">
-        <v>117</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F42" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G43" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F44" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F47" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G47" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F48" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G48" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G49" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G50" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F51" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G51" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F52" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G52" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F53" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" t="s">
+        <v>206</v>
+      </c>
+      <c r="E54" t="s">
+        <v>164</v>
+      </c>
+      <c r="F54" t="s">
         <v>207</v>
       </c>
-      <c r="D54" t="s">
-        <v>208</v>
-      </c>
-      <c r="E54" t="s">
-        <v>166</v>
-      </c>
-      <c r="F54" t="s">
-        <v>209</v>
-      </c>
       <c r="G54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F55" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G55" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F57" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G57" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D58" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E58" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F58" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G58" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G59" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F60" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G60" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D61" t="s">
         <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F61" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G61" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E62" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F62" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G62" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D63" t="s">
         <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F63" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G63" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D64" t="s">
         <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F64" t="s">
+        <v>225</v>
+      </c>
+      <c r="G64" t="s">
         <v>227</v>
-      </c>
-      <c r="G64" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D65" t="s">
         <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F65" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D66" t="s">
         <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F66" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G66" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D67" t="s">
         <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F67" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G67" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E68" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F68" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G68" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F69" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G69" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C70" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D70" t="s">
         <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F70" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G70" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F71" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G71" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C72" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D72" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E72" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F72" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G72" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C73" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E73" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F73" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G73" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D74" t="s">
         <v>15</v>
       </c>
       <c r="E74" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F74" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G74" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C75" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E75" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F75" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B76" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C76" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F76" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B77" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C77" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D77" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E77" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F77" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C78" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F78" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G78" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>243</v>
+      </c>
+      <c r="B79" t="s">
+        <v>253</v>
+      </c>
+      <c r="C79" t="s">
+        <v>276</v>
+      </c>
+      <c r="D79" t="s">
+        <v>271</v>
+      </c>
+      <c r="E79" t="s">
+        <v>261</v>
+      </c>
+      <c r="F79" t="s">
+        <v>262</v>
+      </c>
+      <c r="G79" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>243</v>
+      </c>
+      <c r="B80" t="s">
+        <v>253</v>
+      </c>
+      <c r="C80" t="s">
+        <v>276</v>
+      </c>
+      <c r="D80" t="s">
+        <v>272</v>
+      </c>
+      <c r="E80" t="s">
+        <v>264</v>
+      </c>
+      <c r="F80" t="s">
+        <v>263</v>
+      </c>
+      <c r="G80" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>243</v>
+      </c>
+      <c r="B81" t="s">
+        <v>253</v>
+      </c>
+      <c r="C81" t="s">
+        <v>276</v>
+      </c>
+      <c r="D81" t="s">
+        <v>273</v>
+      </c>
+      <c r="E81" t="s">
+        <v>265</v>
+      </c>
+      <c r="F81" t="s">
+        <v>266</v>
+      </c>
+      <c r="G81" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82" t="s">
+        <v>253</v>
+      </c>
+      <c r="C82" t="s">
+        <v>276</v>
+      </c>
+      <c r="D82" t="s">
+        <v>274</v>
+      </c>
+      <c r="E82" t="s">
+        <v>267</v>
+      </c>
+      <c r="F82" t="s">
+        <v>270</v>
+      </c>
+      <c r="G82" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>243</v>
+      </c>
+      <c r="B83" t="s">
+        <v>253</v>
+      </c>
+      <c r="C83" t="s">
+        <v>276</v>
+      </c>
+      <c r="D83" t="s">
+        <v>275</v>
+      </c>
+      <c r="E83" t="s">
+        <v>268</v>
+      </c>
+      <c r="F83" t="s">
+        <v>269</v>
+      </c>
+      <c r="G83" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>244</v>
+      </c>
+      <c r="B84" t="s">
+        <v>254</v>
+      </c>
+      <c r="C84" t="s">
+        <v>287</v>
+      </c>
+      <c r="D84" t="s">
+        <v>281</v>
+      </c>
+      <c r="E84" t="s">
+        <v>279</v>
+      </c>
+      <c r="G84" t="s">
+        <v>288</v>
+      </c>
+      <c r="H84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>244</v>
+      </c>
+      <c r="B85" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85" t="s">
+        <v>287</v>
+      </c>
+      <c r="D85" t="s">
+        <v>282</v>
+      </c>
+      <c r="E85" t="s">
+        <v>291</v>
+      </c>
+      <c r="G85" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>244</v>
+      </c>
+      <c r="B86" t="s">
+        <v>254</v>
+      </c>
+      <c r="C86" t="s">
+        <v>287</v>
+      </c>
+      <c r="D86" t="s">
+        <v>286</v>
+      </c>
+      <c r="E86" t="s">
+        <v>285</v>
+      </c>
+      <c r="G86" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>244</v>
+      </c>
+      <c r="B87" t="s">
+        <v>254</v>
+      </c>
+      <c r="C87" t="s">
+        <v>287</v>
+      </c>
+      <c r="D87" t="s">
+        <v>284</v>
+      </c>
+      <c r="E87" t="s">
+        <v>289</v>
+      </c>
+      <c r="G87" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>244</v>
+      </c>
+      <c r="B88" t="s">
+        <v>254</v>
+      </c>
+      <c r="C88" t="s">
+        <v>287</v>
+      </c>
+      <c r="D88" t="s">
+        <v>283</v>
+      </c>
+      <c r="E88" t="s">
+        <v>280</v>
+      </c>
+      <c r="G88" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>245</v>
+      </c>
+      <c r="B89" t="s">
+        <v>255</v>
+      </c>
+      <c r="C89" t="s">
+        <v>298</v>
+      </c>
+      <c r="D89" t="s">
+        <v>293</v>
+      </c>
+      <c r="E89" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>245</v>
+      </c>
+      <c r="B90" t="s">
+        <v>255</v>
+      </c>
+      <c r="C90" t="s">
+        <v>298</v>
+      </c>
+      <c r="D90" t="s">
+        <v>296</v>
+      </c>
+      <c r="E90" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>245</v>
+      </c>
+      <c r="B91" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" t="s">
+        <v>298</v>
+      </c>
+      <c r="D91" t="s">
+        <v>282</v>
+      </c>
+      <c r="E91" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>245</v>
+      </c>
+      <c r="B92" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" t="s">
+        <v>298</v>
+      </c>
+      <c r="D92" t="s">
+        <v>286</v>
+      </c>
+      <c r="E92" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>245</v>
+      </c>
+      <c r="B93" t="s">
+        <v>255</v>
+      </c>
+      <c r="C93" t="s">
+        <v>298</v>
+      </c>
+      <c r="D93" t="s">
+        <v>295</v>
+      </c>
+      <c r="E93" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>246</v>
+      </c>
+      <c r="B94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C94" t="s">
+        <v>307</v>
+      </c>
+      <c r="D94" t="s">
+        <v>281</v>
+      </c>
+      <c r="E94" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>246</v>
+      </c>
+      <c r="B95" t="s">
+        <v>256</v>
+      </c>
+      <c r="C95" t="s">
+        <v>307</v>
+      </c>
+      <c r="D95" t="s">
+        <v>302</v>
+      </c>
+      <c r="E95" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>246</v>
+      </c>
+      <c r="B96" t="s">
+        <v>256</v>
+      </c>
+      <c r="C96" t="s">
+        <v>307</v>
+      </c>
+      <c r="D96" t="s">
+        <v>316</v>
+      </c>
+      <c r="E96" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>246</v>
+      </c>
+      <c r="B97" t="s">
+        <v>256</v>
+      </c>
+      <c r="C97" t="s">
+        <v>307</v>
+      </c>
+      <c r="D97" t="s">
+        <v>305</v>
+      </c>
+      <c r="E97" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>246</v>
+      </c>
+      <c r="B98" t="s">
+        <v>256</v>
+      </c>
+      <c r="C98" t="s">
+        <v>307</v>
+      </c>
+      <c r="D98" t="s">
+        <v>300</v>
+      </c>
+      <c r="E98" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>247</v>
+      </c>
+      <c r="B99" t="s">
+        <v>257</v>
+      </c>
+      <c r="C99" t="s">
+        <v>322</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>247</v>
+      </c>
+      <c r="B100" t="s">
+        <v>257</v>
+      </c>
+      <c r="C100" t="s">
+        <v>322</v>
+      </c>
+      <c r="D100" t="s">
+        <v>317</v>
+      </c>
+      <c r="E100" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>247</v>
+      </c>
+      <c r="B101" t="s">
+        <v>257</v>
+      </c>
+      <c r="C101" t="s">
+        <v>322</v>
+      </c>
+      <c r="D101" t="s">
+        <v>316</v>
+      </c>
+      <c r="E101" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>247</v>
+      </c>
+      <c r="B102" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102" t="s">
+        <v>322</v>
+      </c>
+      <c r="D102" t="s">
+        <v>318</v>
+      </c>
+      <c r="E102" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>247</v>
+      </c>
+      <c r="B103" t="s">
+        <v>257</v>
+      </c>
+      <c r="C103" t="s">
+        <v>322</v>
+      </c>
+      <c r="D103" t="s">
+        <v>308</v>
+      </c>
+      <c r="E103" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>248</v>
+      </c>
+      <c r="B104" t="s">
+        <v>258</v>
+      </c>
+      <c r="C104" t="s">
+        <v>329</v>
+      </c>
+      <c r="D104" t="s">
+        <v>325</v>
+      </c>
+      <c r="E104" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>248</v>
+      </c>
+      <c r="B105" t="s">
+        <v>258</v>
+      </c>
+      <c r="C105" t="s">
+        <v>329</v>
+      </c>
+      <c r="D105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>248</v>
+      </c>
+      <c r="B106" t="s">
+        <v>258</v>
+      </c>
+      <c r="C106" t="s">
+        <v>329</v>
+      </c>
+      <c r="D106" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>248</v>
+      </c>
+      <c r="B107" t="s">
+        <v>258</v>
+      </c>
+      <c r="C107" t="s">
+        <v>329</v>
+      </c>
+      <c r="D107" t="s">
+        <v>316</v>
+      </c>
+      <c r="E107" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>248</v>
+      </c>
+      <c r="B108" t="s">
+        <v>258</v>
+      </c>
+      <c r="C108" t="s">
+        <v>329</v>
+      </c>
+      <c r="D108" t="s">
+        <v>283</v>
+      </c>
+      <c r="E108" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>249</v>
+      </c>
+      <c r="B109" t="s">
+        <v>259</v>
+      </c>
+      <c r="C109" t="s">
+        <v>335</v>
+      </c>
+      <c r="D109" t="s">
+        <v>296</v>
+      </c>
+      <c r="E109" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>249</v>
+      </c>
+      <c r="B110" t="s">
+        <v>259</v>
+      </c>
+      <c r="C110" t="s">
+        <v>335</v>
+      </c>
+      <c r="D110" t="s">
+        <v>336</v>
+      </c>
+      <c r="E110" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>249</v>
+      </c>
+      <c r="B111" t="s">
+        <v>259</v>
+      </c>
+      <c r="C111" t="s">
+        <v>335</v>
+      </c>
+      <c r="D111" t="s">
+        <v>336</v>
+      </c>
+      <c r="E111" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>249</v>
+      </c>
+      <c r="B112" t="s">
+        <v>259</v>
+      </c>
+      <c r="C112" t="s">
+        <v>335</v>
+      </c>
+      <c r="D112" t="s">
+        <v>316</v>
+      </c>
+      <c r="E112" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>249</v>
+      </c>
+      <c r="B113" t="s">
+        <v>259</v>
+      </c>
+      <c r="C113" t="s">
+        <v>335</v>
+      </c>
+      <c r="D113" t="s">
+        <v>318</v>
+      </c>
+      <c r="E113" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>250</v>
+      </c>
+      <c r="B114" t="s">
+        <v>260</v>
+      </c>
+      <c r="C114" t="s">
+        <v>314</v>
+      </c>
+      <c r="D114" t="s">
+        <v>75</v>
+      </c>
+      <c r="E114" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>250</v>
+      </c>
+      <c r="B115" t="s">
+        <v>260</v>
+      </c>
+      <c r="C115" t="s">
+        <v>314</v>
+      </c>
+      <c r="D115" t="s">
+        <v>136</v>
+      </c>
+      <c r="E115" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>250</v>
+      </c>
+      <c r="B116" t="s">
+        <v>260</v>
+      </c>
+      <c r="C116" t="s">
+        <v>314</v>
+      </c>
+      <c r="D116" t="s">
+        <v>136</v>
+      </c>
+      <c r="E116" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>250</v>
+      </c>
+      <c r="B117" t="s">
+        <v>260</v>
+      </c>
+      <c r="C117" t="s">
+        <v>314</v>
+      </c>
+      <c r="D117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>250</v>
+      </c>
+      <c r="B118" t="s">
+        <v>260</v>
+      </c>
+      <c r="C118" t="s">
+        <v>314</v>
+      </c>
+      <c r="D118" t="s">
+        <v>308</v>
+      </c>
+      <c r="E118" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
